--- a/medicine/Œil et vue/Fonction_gaussienne/Fonction_gaussienne.xlsx
+++ b/medicine/Œil et vue/Fonction_gaussienne/Fonction_gaussienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fonction gaussienne est une fonction en exponentielle de l'opposé du carré de l'abscisse (une fonction en exp(-x2)). Elle a une forme caractéristique de courbe en cloche.
 L'exemple le plus connu est la densité de probabilité de la loi normale
@@ -536,10 +548,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Généralités
-Les fonctions gaussiennes sont analytiques, de limite nulle en l'infini.
-Largeur à mi-hauteur
-La largeur à mi-hauteur H vaut
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fonctions gaussiennes sont analytiques, de limite nulle en l'infini.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Propriétés des fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Largeur à mi-hauteur</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La largeur à mi-hauteur H vaut
         H
         =
         2
@@ -558,10 +614,88 @@
         ;
     {\displaystyle H=2{\sqrt {2\,\ln(2)}}\ \sigma \simeq 2,3548\sigma \;;}
 la demi-largeur à mi-hauteur vaut donc environ 1,177·σ.
-Dérivation
-La fonction gaussienne est infiniment dérivable partout. Les dérivées successives de la fonction gaussienne font apparaitre les polynômes d'Hermite.
-Intégration
-S'il est aisé de calculer les dérivées d'une fonction gaussienne, on ne peut pas écrire ses primitives à l'aide des fonctions élémentaires (c'est une conséquence d'un théorème de Liouville) ; on les exprime à l'aide de la fonction d'erreur. On peut cependant calculer l'intégrale d'une gaussienne sur la droite réelle, par l'intégrale de Gauss :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Propriétés des fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Dérivation</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fonction gaussienne est infiniment dérivable partout. Les dérivées successives de la fonction gaussienne font apparaitre les polynômes d'Hermite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Propriétés des fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Intégration</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'il est aisé de calculer les dérivées d'une fonction gaussienne, on ne peut pas écrire ses primitives à l'aide des fonctions élémentaires (c'est une conséquence d'un théorème de Liouville) ; on les exprime à l'aide de la fonction d'erreur. On peut cependant calculer l'intégrale d'une gaussienne sur la droite réelle, par l'intégrale de Gauss :
           ∫
             −
             ∞
@@ -612,8 +746,43 @@
     {\displaystyle a={{1} \over {\sigma {\sqrt {2\pi }}}}}
 , et alors, la gaussienne a les propriétés d'une densité de probabilité d'une variable aléatoire suivant une loi normale d'espérance μ et de variance σ2. Graphiquement "a" représente l'amplitude de la fonction gaussienne, son ordonnée maximale. 
 Les fonctions gaussiennes centrées en 0 minimisent le principe d'incertitude de Fourier.
-Propriétés de deux fonctions gaussiennes
-Soient deux fonctions gaussiennes 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Propriétés des fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Propriétés de deux fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soient deux fonctions gaussiennes 
           f
             1
         (
@@ -666,8 +835,47 @@
                       2
     {\textstyle f_{2}(x)={\frac {1}{\sigma _{2}{\sqrt {2\,\pi }}}}\,\mathrm {e} ^{-{\frac {\left(x-\mu _{2}\right)^{2}}{2\sigma _{2}^{2}}}}}
 .
-Somme de deux fonctions gaussiennes
-La somme de ces deux fonctions 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Propriétés des fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Propriétés de deux fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Somme de deux fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La somme de ces deux fonctions 
         f
         (
         x
@@ -687,8 +895,47 @@
     {\textstyle f(x)=f_{1}(x)+f_{2}(x)}
  ne se simplifie pas plus.
 En revanche, si X1 et X2 sont des variables aléatoires gaussiennes indépendantes de densité de probabilité f1(x) et f2(x) respectivement, alors la variable aléatoire X = X1 + X2 est aussi gaussienne et sa densité de probabilité est donnée par le produit de convolution de f1(x) et f2(x).
-Produit de convolution de deux fonctions gaussiennes
-Le produit de convolution f = f1 * f2 de deux fonctions gaussiennes est encore une fonction gaussienne, de moyenne 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Propriétés des fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Propriétés de deux fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Produit de convolution de deux fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le produit de convolution f = f1 * f2 de deux fonctions gaussiennes est encore une fonction gaussienne, de moyenne 
         μ
         =
           μ
@@ -709,8 +956,47 @@
                 2
     {\displaystyle \sigma ={\sqrt {\sigma _{1}^{2}+\sigma _{2}^{2}}}}
 . Dans le cadre des probabilités, il s'agit de la densité de probabilité de la somme de deux variables aléatoires indépendantes suivant des lois normales.
-Produit de deux fonctions gaussiennes
-Le produit de deux fonctions gaussiennes est encore une fonction gaussienne ; cependant, les propriétés de densité de probabilités ne sont pas conservées par le produit (le facteur de normalisation a n'étant pas forcément tel que l'intégrale vaille 1)[1]. Par exemple[1] le produit de deux fonctions gaussiennes de même paramètre μ = μ1 = μ2, a pour paramètres a = a1a2, μ et 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Propriétés des fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Propriétés de deux fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Produit de deux fonctions gaussiennes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le produit de deux fonctions gaussiennes est encore une fonction gaussienne ; cependant, les propriétés de densité de probabilités ne sont pas conservées par le produit (le facteur de normalisation a n'étant pas forcément tel que l'intégrale vaille 1). Par exemple le produit de deux fonctions gaussiennes de même paramètre μ = μ1 = μ2, a pour paramètres a = a1a2, μ et 
         σ
         =
                   σ
@@ -727,7 +1013,7 @@
                     2
                     2
     {\displaystyle \sigma ={\sqrt {\frac {\sigma _{1}^{2}\sigma _{2}^{2}}{\sigma _{1}^{2}+\sigma _{2}^{2}}}}}
-. Dans le cadre des probabilités, la densité de probabilité du produit de deux loi normales a une expression analytique faisant intervenir une fonction de Bessel[2].
+. Dans le cadre des probabilités, la densité de probabilité du produit de deux loi normales a une expression analytique faisant intervenir une fonction de Bessel.
 Comme la fonction gaussienne est une fonction propre de la transformée de Fourier continue, on obtient par la formule sommatoire de Poisson :
           ∑
             k
@@ -769,31 +1055,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Fonction_gaussienne</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Œil et vue/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fonction_gaussienne</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Fonction gaussienne en deux dimensions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">En deux dimensions, la fonction en exponentielle peut être toute forme quadratique définie négative. On en déduit que toute courbe d'iso-valeurs sera une ellipse.
 Une forme particulière de fonction gaussienne 2D est :
@@ -896,8 +1184,43 @@
           ]
     {\displaystyle \left[{\begin{matrix}a&amp;b\\b&amp;c\end{matrix}}\right]}
 est définie positive.
-Signification des coefficients
-En reprenant les notations de la forme générale, on remarque que A désigne la hauteur du sommet de la courbe, et (x0, y0) ses coordonnées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonction_gaussienne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fonction gaussienne en deux dimensions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Signification des coefficients</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En reprenant les notations de la forme générale, on remarque que A désigne la hauteur du sommet de la courbe, et (x0, y0) ses coordonnées.
 En définissant :
         a
         =
@@ -969,31 +1292,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Fonction_gaussienne</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Portail:Œil et vue/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fonction_gaussienne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Applications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fonctions gaussiennes sont très utilisées en physique. En effet, nombre de phénomènes physiques suivent une distribution de type gaussien, expliqué par le théorème central limite. L'intérêt des fonctions gaussiennes en physique est également dû à certaines de leurs propriétés mathématiques remarquables. Par exemple, la transformée de Fourier d'une fonction gaussienne est une fonction gaussienne, ce qui entraîne notamment le fait que les faisceaux lasers sont des faisceaux gaussiens.
 </t>
